--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S1/S1_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S1/S1_storagemod.xlsx
@@ -14,252 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>90.96247748174837</t>
-  </si>
-  <si>
-    <t>92.57122878543663</t>
-  </si>
-  <si>
-    <t>94.17998008912488</t>
-  </si>
-  <si>
-    <t>95.78873139281313</t>
-  </si>
-  <si>
-    <t>97.39748269650138</t>
-  </si>
-  <si>
-    <t>99.00623400018964</t>
-  </si>
-  <si>
-    <t>100.54186024461933</t>
-  </si>
-  <si>
-    <t>101.85811131127335</t>
-  </si>
-  <si>
-    <t>103.02811225941026</t>
-  </si>
-  <si>
-    <t>104.05186308903006</t>
-  </si>
-  <si>
-    <t>104.92936380013275</t>
-  </si>
-  <si>
-    <t>105.80686451123543</t>
-  </si>
-  <si>
-    <t>106.68436522233812</t>
-  </si>
-  <si>
-    <t>107.85436617047503</t>
-  </si>
-  <si>
-    <t>109.24374229638761</t>
-  </si>
-  <si>
-    <t>110.85249360007586</t>
-  </si>
-  <si>
-    <t>112.46124490376411</t>
-  </si>
-  <si>
-    <t>114.06999620745236</t>
-  </si>
-  <si>
-    <t>115.70799753484404</t>
-  </si>
-  <si>
-    <t>117.24362377927373</t>
-  </si>
-  <si>
-    <t>118.89625011851712</t>
-  </si>
-  <si>
-    <t>120.58625148804822</t>
-  </si>
-  <si>
-    <t>122.11375272589362</t>
-  </si>
-  <si>
-    <t>123.72250402958188</t>
-  </si>
-  <si>
-    <t>125.33125533327014</t>
-  </si>
-  <si>
-    <t>126.94000663695839</t>
-  </si>
-  <si>
-    <t>128.54875794064662</t>
-  </si>
-  <si>
-    <t>130.1575092443349</t>
-  </si>
-  <si>
-    <t>131.6850104821803</t>
-  </si>
-  <si>
-    <t>133.3750118517114</t>
-  </si>
-  <si>
-    <t>134.83751303688254</t>
-  </si>
-  <si>
-    <t>136.70626455126788</t>
-  </si>
-  <si>
-    <t>138.20126576277616</t>
-  </si>
-  <si>
-    <t>140.24876742201576</t>
-  </si>
-  <si>
-    <t>141.857518725704</t>
-  </si>
-  <si>
-    <t>143.46627002939226</t>
-  </si>
-  <si>
-    <t>145.15627139892337</t>
-  </si>
-  <si>
-    <t>146.68377263676877</t>
-  </si>
-  <si>
-    <t>148.16252383510846</t>
-  </si>
-  <si>
-    <t>149.3162747700768</t>
-  </si>
-  <si>
-    <t>12491974.508681461</t>
-  </si>
-  <si>
-    <t>12114531.282596886</t>
-  </si>
-  <si>
-    <t>11693168.907511039</t>
-  </si>
-  <si>
-    <t>11299788.381109813</t>
-  </si>
-  <si>
-    <t>10221379.924296822</t>
-  </si>
-  <si>
-    <t>8685350.016638245</t>
-  </si>
-  <si>
-    <t>6732087.920638375</t>
-  </si>
-  <si>
-    <t>5088517.703136957</t>
-  </si>
-  <si>
-    <t>3712380.0385839893</t>
-  </si>
-  <si>
-    <t>2598397.553773566</t>
-  </si>
-  <si>
-    <t>1936796.1109094196</t>
-  </si>
-  <si>
-    <t>1369125.7158520634</t>
-  </si>
-  <si>
-    <t>1018682.1077797927</t>
-  </si>
-  <si>
-    <t>755346.8351521983</t>
-  </si>
-  <si>
-    <t>576911.0402192303</t>
-  </si>
-  <si>
-    <t>448694.4135504921</t>
-  </si>
-  <si>
-    <t>371057.6775381166</t>
-  </si>
-  <si>
-    <t>321685.41574485693</t>
-  </si>
-  <si>
-    <t>280345.3229344514</t>
-  </si>
-  <si>
-    <t>244096.95242499825</t>
-  </si>
-  <si>
-    <t>218442.93967328034</t>
-  </si>
-  <si>
-    <t>198348.3339535558</t>
-  </si>
-  <si>
-    <t>181073.01437070104</t>
-  </si>
-  <si>
-    <t>168357.2536174312</t>
-  </si>
-  <si>
-    <t>158468.7087754114</t>
-  </si>
-  <si>
-    <t>147985.6803654512</t>
-  </si>
-  <si>
-    <t>138577.15910755613</t>
-  </si>
-  <si>
-    <t>129817.85854451865</t>
-  </si>
-  <si>
-    <t>123144.5532015412</t>
-  </si>
-  <si>
-    <t>115368.29261976582</t>
-  </si>
-  <si>
-    <t>110758.59622240686</t>
-  </si>
-  <si>
-    <t>104148.39285980082</t>
-  </si>
-  <si>
-    <t>98146.93440479974</t>
-  </si>
-  <si>
-    <t>91654.31444426114</t>
-  </si>
-  <si>
-    <t>87218.73488817524</t>
-  </si>
-  <si>
-    <t>82697.8013524896</t>
-  </si>
-  <si>
-    <t>77341.5320875587</t>
-  </si>
-  <si>
-    <t>74465.73433352183</t>
-  </si>
-  <si>
-    <t>71032.53049196252</t>
-  </si>
-  <si>
-    <t>68319.62195752069</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -632,323 +392,323 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
+      <c r="A2">
+        <v>90.96247748174837</v>
+      </c>
+      <c r="B2">
+        <v>12491974.50868146</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
+      <c r="A3">
+        <v>92.57122878543663</v>
+      </c>
+      <c r="B3">
+        <v>12114531.28259689</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
+      <c r="A4">
+        <v>94.17998008912488</v>
+      </c>
+      <c r="B4">
+        <v>11693168.90751104</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
+      <c r="A5">
+        <v>95.78873139281313</v>
+      </c>
+      <c r="B5">
+        <v>11299788.38110981</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
+      <c r="A6">
+        <v>97.39748269650138</v>
+      </c>
+      <c r="B6">
+        <v>10221379.92429682</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
+      <c r="A7">
+        <v>99.00623400018964</v>
+      </c>
+      <c r="B7">
+        <v>8685350.016638245</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
+      <c r="A8">
+        <v>100.5418602446193</v>
+      </c>
+      <c r="B8">
+        <v>6732087.920638375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
+      <c r="A9">
+        <v>101.8581113112733</v>
+      </c>
+      <c r="B9">
+        <v>5088517.703136957</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
+      <c r="A10">
+        <v>103.0281122594103</v>
+      </c>
+      <c r="B10">
+        <v>3712380.038583989</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
+      <c r="A11">
+        <v>104.0518630890301</v>
+      </c>
+      <c r="B11">
+        <v>2598397.553773566</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
+      <c r="A12">
+        <v>104.9293638001327</v>
+      </c>
+      <c r="B12">
+        <v>1936796.11090942</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
+      <c r="A13">
+        <v>105.8068645112354</v>
+      </c>
+      <c r="B13">
+        <v>1369125.715852063</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
+      <c r="A14">
+        <v>106.6843652223381</v>
+      </c>
+      <c r="B14">
+        <v>1018682.107779793</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
+      <c r="A15">
+        <v>107.854366170475</v>
+      </c>
+      <c r="B15">
+        <v>755346.8351521983</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
+      <c r="A16">
+        <v>109.2437422963876</v>
+      </c>
+      <c r="B16">
+        <v>576911.0402192303</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
+      <c r="A17">
+        <v>110.8524936000759</v>
+      </c>
+      <c r="B17">
+        <v>448694.4135504921</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
+      <c r="A18">
+        <v>112.4612449037641</v>
+      </c>
+      <c r="B18">
+        <v>371057.6775381166</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
+      <c r="A19">
+        <v>114.0699962074524</v>
+      </c>
+      <c r="B19">
+        <v>321685.4157448569</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
+      <c r="A20">
+        <v>115.707997534844</v>
+      </c>
+      <c r="B20">
+        <v>280345.3229344514</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
+      <c r="A21">
+        <v>117.2436237792737</v>
+      </c>
+      <c r="B21">
+        <v>244096.9524249982</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
+      <c r="A22">
+        <v>118.8962501185171</v>
+      </c>
+      <c r="B22">
+        <v>218442.9396732803</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
+      <c r="A23">
+        <v>120.5862514880482</v>
+      </c>
+      <c r="B23">
+        <v>198348.3339535558</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
+      <c r="A24">
+        <v>122.1137527258936</v>
+      </c>
+      <c r="B24">
+        <v>181073.014370701</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
+      <c r="A25">
+        <v>123.7225040295819</v>
+      </c>
+      <c r="B25">
+        <v>168357.2536174312</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
+      <c r="A26">
+        <v>125.3312553332701</v>
+      </c>
+      <c r="B26">
+        <v>158468.7087754114</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
+      <c r="A27">
+        <v>126.9400066369584</v>
+      </c>
+      <c r="B27">
+        <v>147985.6803654512</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
+      <c r="A28">
+        <v>128.5487579406466</v>
+      </c>
+      <c r="B28">
+        <v>138577.1591075561</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
+      <c r="A29">
+        <v>130.1575092443349</v>
+      </c>
+      <c r="B29">
+        <v>129817.8585445186</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
+      <c r="A30">
+        <v>131.6850104821803</v>
+      </c>
+      <c r="B30">
+        <v>123144.5532015412</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
+      <c r="A31">
+        <v>133.3750118517114</v>
+      </c>
+      <c r="B31">
+        <v>115368.2926197658</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
+      <c r="A32">
+        <v>134.8375130368825</v>
+      </c>
+      <c r="B32">
+        <v>110758.5962224069</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
+      <c r="A33">
+        <v>136.7062645512679</v>
+      </c>
+      <c r="B33">
+        <v>104148.3928598008</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
+      <c r="A34">
+        <v>138.2012657627762</v>
+      </c>
+      <c r="B34">
+        <v>98146.93440479974</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
+      <c r="A35">
+        <v>140.2487674220158</v>
+      </c>
+      <c r="B35">
+        <v>91654.31444426114</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
+      <c r="A36">
+        <v>141.857518725704</v>
+      </c>
+      <c r="B36">
+        <v>87218.73488817524</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
+      <c r="A37">
+        <v>143.4662700293923</v>
+      </c>
+      <c r="B37">
+        <v>82697.80135248959</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
+      <c r="A38">
+        <v>145.1562713989234</v>
+      </c>
+      <c r="B38">
+        <v>77341.53208755871</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
+      <c r="A39">
+        <v>146.6837726367688</v>
+      </c>
+      <c r="B39">
+        <v>74465.73433352183</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
+      <c r="A40">
+        <v>148.1625238351085</v>
+      </c>
+      <c r="B40">
+        <v>71032.53049196252</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
+      <c r="A41">
+        <v>149.3162747700768</v>
+      </c>
+      <c r="B41">
+        <v>68319.62195752069</v>
       </c>
     </row>
   </sheetData>
